--- a/biology/Botanique/Parc_d'Inokashira/Parc_d'Inokashira.xlsx
+++ b/biology/Botanique/Parc_d'Inokashira/Parc_d'Inokashira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%27Inokashira</t>
+          <t>Parc_d'Inokashira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc d'Inokashira (井の頭恩賜公園, Inokashira Onshi Kōen?) est à cheval entre Musashino et Mitaka dans la partie ouest de Tokyo au Japon. Il se trouve à cinq minutes à pied de la gare de Kichijōji sur la ligne ferroviaire JR Chūō.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%27Inokashira</t>
+          <t>Parc_d'Inokashira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Attractions touristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc abrite un petit temple dédié à la déesse de l'art et de la musique : Benzaiten. Il abrite également un aquarium et un zoo où l'on peut voir des macaques rhésus, des saros du Japon, des zibelines japonaises, des civettes masquées, des chats léopards du Bengale, ou encore des tanukis.
 En avril, les nombreux cerisiers du parc en font un endroit privilégié lors de la fête de printemps :  O-hanami.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_d%27Inokashira</t>
+          <t>Parc_d'Inokashira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en + ja) Site officiel
  Portail de Tokyo   Portail des espaces verts                    </t>
